--- a/outputs/species_aggregates.xlsx
+++ b/outputs/species_aggregates.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['&gt;0+', '7+', '&gt;1', '&gt;5+', '&gt;3+', '9+', '&gt;3', '5+', '2', '&gt;2', '&gt;0', '6+', '&gt;1+', '&gt;4', '1', '5', '4', '2+', '7', '6', '8+', '3', '1+', '&gt;4+', '0+', '13+', '&gt;6+', '4+', '3+', '&gt;2+', '0']</t>
+          <t>&gt;0+, 7+, &gt;1, &gt;5+, &gt;3+, 9+, &gt;3, 5+, 2, &gt;2, &gt;0, 6+, &gt;1+, &gt;4, 1, 5, 4, 2+, 7, 6, 8+, 3, 1+, &gt;4+, 0+, 13+, &gt;6+, 4+, 3+, &gt;2+, 0</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['&gt;0+', '&gt;1', '3', '1+', '0+', '5+', '2', '&gt;0', '4+', '&gt;1+', '1', '5', '3+', '4', '&gt;2+', '2+', '0']</t>
+          <t>&gt;0+, &gt;1, 3, 1+, 0+, 5+, 2, &gt;0, 4+, &gt;1+, 1, 5, 3+, 4, &gt;2+, 2+, 0</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['&gt;0+', '7+', '13', '&gt;1', '&gt;5+', '&gt;3+', '9+', '5+', '2', '&gt;2', '&gt;0', '10', '6+', '&gt;1+', '&gt;4', '10+', '1', '5', '11+', '4', '15+', '2+', '12', '7', '6', '8+', '12+', '3', '1+', '&gt;4+', '0+', '13+', '&gt;6+', '11', '4+', '16+', '9', '3+', '&gt;2+', '14+', '8', '0']</t>
+          <t>&gt;0+, 7+, 13, &gt;1, &gt;5+, &gt;3+, 9+, 5+, 2, &gt;2, &gt;0, 10, 6+, &gt;1+, &gt;4, 10+, 1, 5, 11+, 4, 15+, 2+, 12, 7, 6, 8+, 12+, 3, 1+, &gt;4+, 0+, 13+, &gt;6+, 11, 4+, 16+, 9, 3+, &gt;2+, 14+, 8, 0</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['7+', '13', '&gt;1', '5+', '2', '15', '&gt;0', '10', '&gt;8+', '6+', '10+', '1', '11+', '17', '15+', '2+', '12', '6', '8+', '14', '20+', '12+', '3', '1+', '17+', '&gt;4+', '13+', '19', '&gt;6+', '11', '18+', '4+', '16+', '&gt;11+', '19+', '14+', '&gt;0+', '18', '&gt;9+', '&gt;5+', '&gt;3+', '9+', '&gt;1+', '5', '4', '&gt;7+', '&gt;10+', '7', '0+', '&gt;20+', '16', '9', '&gt;12+', '3+', '8', '0']</t>
+          <t>7+, 13, &gt;1, 5+, 2, 15, &gt;0, 10, &gt;8+, 6+, 10+, 1, 11+, 17, 15+, 2+, 12, 6, 8+, 14, 20+, 12+, 3, 1+, 17+, &gt;4+, 13+, 19, &gt;6+, 11, 18+, 4+, 16+, &gt;11+, 19+, 14+, &gt;0+, 18, &gt;9+, &gt;5+, &gt;3+, 9+, &gt;1+, 5, 4, &gt;7+, &gt;10+, 7, 0+, &gt;20+, 16, 9, &gt;12+, 3+, 8, 0</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['&gt;0+', '7+', '&gt;5+', '9+', '5+', '2', '10', '6+', '&gt;1+', '10+', '1', '5', '4', '2+', '7', '6', '8+', '3', '1+', '0+', '11', '4+', '9', '3+', '&gt;2+', '8', '0']</t>
+          <t>&gt;0+, 7+, &gt;5+, 9+, 5+, 2, 10, 6+, &gt;1+, 10+, 1, 5, 4, 2+, 7, 6, 8+, 3, 1+, 0+, 11, 4+, 9, 3+, &gt;2+, 8, 0</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['&gt;0+', '7+', '13', '&gt;1', '9+', '5+', '2', '10', '6+', '10+', '1', '5', '11+', '4', '2+', '7', '6', '8+', '3', '1+', '0+', '11', '4+', '3+', '8', '0']</t>
+          <t>&gt;0+, 7+, 13, &gt;1, 9+, 5+, 2, 10, 6+, 10+, 1, 5, 11+, 4, 2+, 7, 6, 8+, 3, 1+, 0+, 11, 4+, 3+, 8, 0</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['&gt;0+', '7+', '3', '1+', '&gt;3+', '0+', '5+', '2', '&gt;0', '4+', '6+', '&gt;1+', '&gt;4', '1', '5', '3+', '4', '&gt;2+', '2+', '6', '0', '8+']</t>
+          <t>&gt;0+, 7+, 3, 1+, &gt;3+, 0+, 5+, 2, &gt;0, 4+, 6+, &gt;1+, &gt;4, 1, 5, 3+, 4, &gt;2+, 2+, 6, 0, 8+</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['&gt;0+', '3', '1+', '0+', '5+', '2', '&gt;0', '4+', '6+', '&gt;1+', '10+', '1', '3+', '4', '&gt;2+', '2+', '0']</t>
+          <t>&gt;0+, 3, 1+, 0+, 5+, 2, &gt;0, 4+, 6+, &gt;1+, 10+, 1, 3+, 4, &gt;2+, 2+, 0</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['&gt;0+', '1+', '0+', '2', '&gt;0', '0']</t>
+          <t>&gt;0+, 1+, 0+, 2, &gt;0, 0</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['7+', '13', '9+', '5+', '2', '10', '6+', '&gt;1+', '10+', '1', '5', '11+', '4', '2+', '7', '6', '8+', '12+', '3', '1+', '0+', '13+', '11', '4+', '9', '3+', '14+', '8', '0']</t>
+          <t>7+, 13, 9+, 5+, 2, 10, 6+, &gt;1+, 10+, 1, 5, 11+, 4, 2+, 7, 6, 8+, 12+, 3, 1+, 0+, 13+, 11, 4+, 9, 3+, 14+, 8, 0</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['18', '7+', '13', '9+', '5+', '2', '15', '10', '6+', '10+', '1', '5', '11+', '17', '4', '15+', '2+', '12', '7', '6', '8+', '14', '20+', '12+', '&gt;9', '3', '1+', '17+', '0+', '13+', '11', '&gt;10', '18+', '4+', '16', '16+', '9', '3+', '19+', '14+', '8', '0']</t>
+          <t>18, 7+, 13, 9+, 5+, 2, 15, 10, 6+, 10+, 1, 5, 11+, 17, 4, 15+, 2+, 12, 7, 6, 8+, 14, 20+, 12+, &gt;9, 3, 1+, 17+, 0+, 13+, 11, &gt;10, 18+, 4+, 16, 16+, 9, 3+, 19+, 14+, 8, 0</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['7+', '3', '1+', '0+', '5+', '2', '4+', '6+', '1', '5', '3+', '4', '2+', '0']</t>
+          <t>7+, 3, 1+, 0+, 5+, 2, 4+, 6+, 1, 5, 3+, 4, 2+, 0</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['7+', '13', '9+', '5+', '2', '15', '10', '20', '6+', '10+', '1', '5', '11+', '17', '4', '15+', '2+', '12', '7', '6', '8+', '14', '20+', '12+', '3', '1+', '17+', '0+', '13+', '&gt;20+', '19', '11', '18+', '4+', '16', '16+', '9', '3+', '19+', '14+', '8', '0']</t>
+          <t>7+, 13, 9+, 5+, 2, 15, 10, 20, 6+, 10+, 1, 5, 11+, 17, 4, 15+, 2+, 12, 7, 6, 8+, 14, 20+, 12+, 3, 1+, 17+, 0+, 13+, &gt;20+, 19, 11, 18+, 4+, 16, 16+, 9, 3+, 19+, 14+, 8, 0</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['7+', '12+', '3', '1+', '9+', '&gt;4+', '0+', '5+', '2', '4+', '6+', '5', '11+', '3+', '4', '2+', '7', '14+', '6', '8+']</t>
+          <t>7+, 12+, 3, 1+, 9+, &gt;4+, 0+, 5+, 2, 4+, 6+, 5, 11+, 3+, 4, 2+, 7, 14+, 6, 8+</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['4+', '6+', '3+', '3', '1+', '0+', '5+', '2', '2+', '0']</t>
+          <t>4+, 6+, 3+, 3, 1+, 0+, 5+, 2, 2+, 0</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['7+', '3', '1+', '9+', '5+', '4+', '6+', '3+', '4', '2+', '7', '6', '0', '8+']</t>
+          <t>7+, 3, 1+, 9+, 5+, 4+, 6+, 3+, 4, 2+, 7, 6, 0, 8+</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['&gt;0+', '3', '1+', '0+', '5+', '2', '4+', '6+', '&gt;1+', '1', '5', '3+', '4', '&gt;2+', '2+', '0']</t>
+          <t>&gt;0+, 3, 1+, 0+, 5+, 2, 4+, 6+, &gt;1+, 1, 5, 3+, 4, &gt;2+, 2+, 0</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['&gt;0+', '1+', '0+', '0']</t>
+          <t>&gt;0+, 1+, 0+, 0</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['7+', '3', '1+', '9+', '0+', '5+', '2', '4+', '6+', '10+', '1', '5', '3+', '4', '2+', '7', '6', '8', '0', '8+']</t>
+          <t>7+, 3, 1+, 9+, 0+, 5+, 2, 4+, 6+, 10+, 1, 5, 3+, 4, 2+, 7, 6, 8, 0, 8+</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['&gt;0+', '7+', '12+', '3', '1+', '9+', '5+', '2', '4+', '6+', '10+', '5', '3+', '2+', '7', '6', '0', '8+']</t>
+          <t>&gt;0+, 7+, 12+, 3, 1+, 9+, 5+, 2, 4+, 6+, 10+, 5, 3+, 2+, 7, 6, 0, 8+</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['&gt;0', '0']</t>
+          <t>&gt;0, 0</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['4+', '5', '3', '4', '2+', '7', '6', '0']</t>
+          <t>4+, 5, 3, 4, 2+, 7, 6, 0</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['4', '10', '0']</t>
+          <t>4, 10, 0</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['0+']</t>
+          <t>0+</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['&gt;0+', '1+', '0+', '2+']</t>
+          <t>&gt;0+, 1+, 0+, 2+</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['&gt;0+', '0+', '0']</t>
+          <t>&gt;0+, 0+, 0</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['14', '4+', '7+', '10+', '5', '3+', '3', '5+', '2', '2+', '0']</t>
+          <t>14, 4+, 7+, 10+, 5, 3+, 3, 5+, 2, 2+, 0</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['4+', '6+', '3+', '1+', '5+', '2+', '0', '8+']</t>
+          <t>4+, 6+, 3+, 1+, 5+, 2+, 0, 8+</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['6+', '3+', '5+', '0']</t>
+          <t>6+, 3+, 5+, 0</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['12+', '3+', '2+', '0']</t>
+          <t>12+, 3+, 2+, 0</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['4+', '6+', '3+', '9+', '2+']</t>
+          <t>4+, 6+, 3+, 9+, 2+</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['&gt;0+', '0+']</t>
+          <t>&gt;0+, 0+</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['&gt;10', '0']</t>
+          <t>&gt;10, 0</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['1+', '0+']</t>
+          <t>1+, 0+</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['3+', '2+']</t>
+          <t>3+, 2+</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['3+']</t>
+          <t>3+</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['6+', '0+']</t>
+          <t>6+, 0+</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['&gt;1+']</t>
+          <t>&gt;1+</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['0+']</t>
+          <t>0+</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['9+']</t>
+          <t>9+</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['4+']</t>
+          <t>4+</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['3+']</t>
+          <t>3+</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['&gt;0+']</t>
+          <t>&gt;0+</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['2+']</t>
+          <t>2+</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['&gt;0+']</t>
+          <t>&gt;0+</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['0']</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1703,11 +1703,7 @@
       <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1729,11 +1725,7 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1755,11 +1747,7 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1781,11 +1769,7 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1807,11 +1791,7 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1833,11 +1813,7 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1859,11 +1835,7 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1885,11 +1857,7 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1911,11 +1879,7 @@
       <c r="E57" t="n">
         <v>0</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1937,11 +1901,7 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1963,11 +1923,7 @@
       <c r="E59" t="n">
         <v>0</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1989,11 +1945,7 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2015,11 +1967,7 @@
       <c r="E61" t="n">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2037,11 +1985,7 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2063,11 +2007,7 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2089,11 +2029,7 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2115,11 +2051,7 @@
       <c r="E65" t="n">
         <v>0</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2137,11 +2069,7 @@
       <c r="E66" t="n">
         <v>0</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2163,11 +2091,7 @@
       <c r="E67" t="n">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2189,11 +2113,7 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2215,11 +2135,7 @@
       <c r="E69" t="n">
         <v>0</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2241,11 +2157,7 @@
       <c r="E70" t="n">
         <v>0</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2267,11 +2179,7 @@
       <c r="E71" t="n">
         <v>0</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2293,11 +2201,7 @@
       <c r="E72" t="n">
         <v>0</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2319,11 +2223,7 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2345,11 +2245,7 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2371,11 +2267,7 @@
       <c r="E75" t="n">
         <v>0</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2397,11 +2289,7 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2423,11 +2311,7 @@
       <c r="E77" t="n">
         <v>0</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2449,11 +2333,7 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2475,11 +2355,7 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2501,11 +2377,7 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2527,11 +2399,7 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2553,11 +2421,7 @@
       <c r="E82" t="n">
         <v>0</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2579,11 +2443,7 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2605,11 +2465,7 @@
       <c r="E84" t="n">
         <v>0</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2631,11 +2487,7 @@
       <c r="E85" t="n">
         <v>0</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2657,11 +2509,7 @@
       <c r="E86" t="n">
         <v>0</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2683,11 +2531,7 @@
       <c r="E87" t="n">
         <v>0</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2709,11 +2553,7 @@
       <c r="E88" t="n">
         <v>0</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2731,11 +2571,7 @@
       <c r="E89" t="n">
         <v>0</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2757,11 +2593,7 @@
       <c r="E90" t="n">
         <v>0</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2783,11 +2615,7 @@
       <c r="E91" t="n">
         <v>0</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2809,11 +2637,7 @@
       <c r="E92" t="n">
         <v>0</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2835,11 +2659,7 @@
       <c r="E93" t="n">
         <v>0</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2861,11 +2681,7 @@
       <c r="E94" t="n">
         <v>0</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2887,11 +2703,7 @@
       <c r="E95" t="n">
         <v>0</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2913,11 +2725,7 @@
       <c r="E96" t="n">
         <v>0</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2939,11 +2747,7 @@
       <c r="E97" t="n">
         <v>0</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2965,11 +2769,7 @@
       <c r="E98" t="n">
         <v>0</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2991,11 +2791,7 @@
       <c r="E99" t="n">
         <v>0</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3017,11 +2813,7 @@
       <c r="E100" t="n">
         <v>0</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3043,11 +2835,7 @@
       <c r="E101" t="n">
         <v>0</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3069,11 +2857,7 @@
       <c r="E102" t="n">
         <v>0</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3095,11 +2879,7 @@
       <c r="E103" t="n">
         <v>0</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3121,11 +2901,7 @@
       <c r="E104" t="n">
         <v>0</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3147,11 +2923,7 @@
       <c r="E105" t="n">
         <v>0</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3173,11 +2945,7 @@
       <c r="E106" t="n">
         <v>0</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3199,11 +2967,7 @@
       <c r="E107" t="n">
         <v>0</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3225,11 +2989,7 @@
       <c r="E108" t="n">
         <v>0</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3251,11 +3011,7 @@
       <c r="E109" t="n">
         <v>0</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3277,11 +3033,7 @@
       <c r="E110" t="n">
         <v>0</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3303,11 +3055,7 @@
       <c r="E111" t="n">
         <v>0</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3329,11 +3077,7 @@
       <c r="E112" t="n">
         <v>0</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3355,11 +3099,7 @@
       <c r="E113" t="n">
         <v>0</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3381,11 +3121,7 @@
       <c r="E114" t="n">
         <v>0</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3407,11 +3143,7 @@
       <c r="E115" t="n">
         <v>0</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3433,11 +3165,7 @@
       <c r="E116" t="n">
         <v>0</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3459,11 +3187,7 @@
       <c r="E117" t="n">
         <v>0</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3485,11 +3209,7 @@
       <c r="E118" t="n">
         <v>0</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3511,11 +3231,7 @@
       <c r="E119" t="n">
         <v>0</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3537,11 +3253,7 @@
       <c r="E120" t="n">
         <v>0</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
